--- a/codegen/__out__/deno/gen/options/options.xlsx
+++ b/codegen/__out__/deno/gen/options/options.xlsx
@@ -51,6 +51,9 @@
     <t xml:space="preserve">&lt;%=await _data_.n("锁定")%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("版本号")%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=await _data_.n("创建人")%&gt;</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.is_locked%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%~model.version%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model._create_usr_id%&gt;</t>
@@ -458,40 +464,46 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
